--- a/data/pca/factorExposure/factorExposure_2008-12-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-05.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01948834753065403</v>
+        <v>-0.0180682630576024</v>
       </c>
       <c r="C2">
-        <v>0.01437283506518486</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01643810031555974</v>
+      </c>
+      <c r="D2">
+        <v>0.02343412043494018</v>
+      </c>
+      <c r="E2">
+        <v>0.01138962052902744</v>
+      </c>
+      <c r="F2">
+        <v>-0.003565863076822876</v>
+      </c>
+      <c r="G2">
+        <v>0.03044735767200437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08068299150012845</v>
+        <v>-0.08431884657444517</v>
       </c>
       <c r="C4">
-        <v>0.08756832218431666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.0896291434093489</v>
+      </c>
+      <c r="D4">
+        <v>-0.00995332428266028</v>
+      </c>
+      <c r="E4">
+        <v>0.050393647873142</v>
+      </c>
+      <c r="F4">
+        <v>0.09178124272836284</v>
+      </c>
+      <c r="G4">
+        <v>-0.052096395941859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005272722049231861</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0001934504943215373</v>
+      </c>
+      <c r="D5">
+        <v>-0.00206035551461901</v>
+      </c>
+      <c r="E5">
+        <v>-0.004949101044672216</v>
+      </c>
+      <c r="F5">
+        <v>-0.002227285171653953</v>
+      </c>
+      <c r="G5">
+        <v>-0.0003140752164427284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1668688194137119</v>
+        <v>-0.1685609096656676</v>
       </c>
       <c r="C6">
-        <v>-0.01202428066100399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.004580921739467418</v>
+      </c>
+      <c r="D6">
+        <v>-0.07300490394395959</v>
+      </c>
+      <c r="E6">
+        <v>-0.05503810273172308</v>
+      </c>
+      <c r="F6">
+        <v>0.03985977669815091</v>
+      </c>
+      <c r="G6">
+        <v>0.1373733221056412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05142860712158766</v>
+        <v>-0.05370678302304159</v>
       </c>
       <c r="C7">
-        <v>0.05656307397104941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05866506536341696</v>
+      </c>
+      <c r="D7">
+        <v>0.007060643580589434</v>
+      </c>
+      <c r="E7">
+        <v>0.09603036438905284</v>
+      </c>
+      <c r="F7">
+        <v>0.05884139555656048</v>
+      </c>
+      <c r="G7">
+        <v>-0.0325980775247386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04956695453696257</v>
+        <v>-0.04777024756772096</v>
       </c>
       <c r="C8">
-        <v>0.05642934826712171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05447484791910756</v>
+      </c>
+      <c r="D8">
+        <v>0.04395197495488724</v>
+      </c>
+      <c r="E8">
+        <v>0.01362630342312352</v>
+      </c>
+      <c r="F8">
+        <v>-0.03129502800731352</v>
+      </c>
+      <c r="G8">
+        <v>-0.005432309069706653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05661085352823315</v>
+        <v>-0.06197605438914441</v>
       </c>
       <c r="C9">
-        <v>0.0967459467900396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09643494972886948</v>
+      </c>
+      <c r="D9">
+        <v>-0.01253382565311882</v>
+      </c>
+      <c r="E9">
+        <v>0.05170440446801234</v>
+      </c>
+      <c r="F9">
+        <v>0.09867681657265125</v>
+      </c>
+      <c r="G9">
+        <v>-0.06095020772798194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1202976158481081</v>
+        <v>-0.1040818644157699</v>
       </c>
       <c r="C10">
-        <v>-0.1577758379798901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1404395325613341</v>
+      </c>
+      <c r="D10">
+        <v>0.08171342148254179</v>
+      </c>
+      <c r="E10">
+        <v>0.01649698612553484</v>
+      </c>
+      <c r="F10">
+        <v>-0.05652778287078654</v>
+      </c>
+      <c r="G10">
+        <v>-0.05856444523882264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08035027315017744</v>
+        <v>-0.07745158194833887</v>
       </c>
       <c r="C11">
-        <v>0.1360591374576253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1349222436371314</v>
+      </c>
+      <c r="D11">
+        <v>0.01685577786370976</v>
+      </c>
+      <c r="E11">
+        <v>0.04299751551113838</v>
+      </c>
+      <c r="F11">
+        <v>0.06587932217353387</v>
+      </c>
+      <c r="G11">
+        <v>-0.1041701749850783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08043599006015424</v>
+        <v>-0.07617240134984467</v>
       </c>
       <c r="C12">
-        <v>0.1629906530990469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1605170804354833</v>
+      </c>
+      <c r="D12">
+        <v>0.01546213473090857</v>
+      </c>
+      <c r="E12">
+        <v>0.0775812705071498</v>
+      </c>
+      <c r="F12">
+        <v>0.05591968919072911</v>
+      </c>
+      <c r="G12">
+        <v>-0.09552051563941248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04249017665048489</v>
+        <v>-0.04466386958700008</v>
       </c>
       <c r="C13">
-        <v>0.07386182466841762</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07771039179478739</v>
+      </c>
+      <c r="D13">
+        <v>0.03047109569383056</v>
+      </c>
+      <c r="E13">
+        <v>0.08846152630561641</v>
+      </c>
+      <c r="F13">
+        <v>0.04947990398228096</v>
+      </c>
+      <c r="G13">
+        <v>-0.02548843634502631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01729964437695703</v>
+        <v>-0.02004173070067093</v>
       </c>
       <c r="C14">
-        <v>0.04760292210301671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05063219474920299</v>
+      </c>
+      <c r="D14">
+        <v>0.03545001769564975</v>
+      </c>
+      <c r="E14">
+        <v>0.04164754438735932</v>
+      </c>
+      <c r="F14">
+        <v>0.04883181498125785</v>
+      </c>
+      <c r="G14">
+        <v>-0.05847079021404804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03053877164181935</v>
+        <v>-0.03080917180329019</v>
       </c>
       <c r="C15">
-        <v>0.06618600417097453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06396219649577367</v>
+      </c>
+      <c r="D15">
+        <v>-0.02125942481995678</v>
+      </c>
+      <c r="E15">
+        <v>0.04924827128185255</v>
+      </c>
+      <c r="F15">
+        <v>0.0281081077180849</v>
+      </c>
+      <c r="G15">
+        <v>-0.01866251706983517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05910242356704427</v>
+        <v>-0.05665995067628161</v>
       </c>
       <c r="C16">
-        <v>0.1578304918166713</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1571714603641002</v>
+      </c>
+      <c r="D16">
+        <v>0.01420331649340895</v>
+      </c>
+      <c r="E16">
+        <v>0.02864810707411245</v>
+      </c>
+      <c r="F16">
+        <v>0.06502704355892838</v>
+      </c>
+      <c r="G16">
+        <v>-0.1233892231492507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.009040709189408197</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004006697177132599</v>
+      </c>
+      <c r="D17">
+        <v>-0.005670131847564643</v>
+      </c>
+      <c r="E17">
+        <v>0.002558738413239364</v>
+      </c>
+      <c r="F17">
+        <v>-0.01858601784189871</v>
+      </c>
+      <c r="G17">
+        <v>-0.004645325660141304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.0485967214008641</v>
+        <v>-0.05876567729962932</v>
       </c>
       <c r="C18">
-        <v>0.0543759798136319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04758643072489671</v>
+      </c>
+      <c r="D18">
+        <v>-0.03896889586597118</v>
+      </c>
+      <c r="E18">
+        <v>-0.05913310383926816</v>
+      </c>
+      <c r="F18">
+        <v>-0.03207088763945176</v>
+      </c>
+      <c r="G18">
+        <v>0.1896466506195483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06034264680002116</v>
+        <v>-0.05894939140568155</v>
       </c>
       <c r="C20">
-        <v>0.1103054925794835</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1068886159614531</v>
+      </c>
+      <c r="D20">
+        <v>-0.004102305173109037</v>
+      </c>
+      <c r="E20">
+        <v>0.069179772144701</v>
+      </c>
+      <c r="F20">
+        <v>0.05162068058960758</v>
+      </c>
+      <c r="G20">
+        <v>-0.05722382882540832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04486484667393251</v>
+        <v>-0.04658439904297609</v>
       </c>
       <c r="C21">
-        <v>0.07273755056405254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06861315501599999</v>
+      </c>
+      <c r="D21">
+        <v>0.01641353805402376</v>
+      </c>
+      <c r="E21">
+        <v>0.04169238034327648</v>
+      </c>
+      <c r="F21">
+        <v>0.06173930215108138</v>
+      </c>
+      <c r="G21">
+        <v>-0.07632278918431169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04486273894843919</v>
+        <v>-0.04493263457731285</v>
       </c>
       <c r="C22">
-        <v>0.03849421369425281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04257656500217467</v>
+      </c>
+      <c r="D22">
+        <v>0.07746553965802572</v>
+      </c>
+      <c r="E22">
+        <v>-0.1908598245619178</v>
+      </c>
+      <c r="F22">
+        <v>-0.06324657280124739</v>
+      </c>
+      <c r="G22">
+        <v>-0.02180490559557159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04487307284418018</v>
+        <v>-0.04494161255294939</v>
       </c>
       <c r="C23">
-        <v>0.03848727507610084</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04257056812837662</v>
+      </c>
+      <c r="D23">
+        <v>0.07750768862666707</v>
+      </c>
+      <c r="E23">
+        <v>-0.1909045757606466</v>
+      </c>
+      <c r="F23">
+        <v>-0.06329980384650266</v>
+      </c>
+      <c r="G23">
+        <v>-0.02181315704699965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06526247650599028</v>
+        <v>-0.06366012460437795</v>
       </c>
       <c r="C24">
-        <v>0.1417024590605536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.138073992913097</v>
+      </c>
+      <c r="D24">
+        <v>0.01324189579812033</v>
+      </c>
+      <c r="E24">
+        <v>0.04985359474028309</v>
+      </c>
+      <c r="F24">
+        <v>0.06439314943721905</v>
+      </c>
+      <c r="G24">
+        <v>-0.06601210498507749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07504794464500543</v>
+        <v>-0.07196386682482847</v>
       </c>
       <c r="C25">
-        <v>0.1239170928282925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1219535369165199</v>
+      </c>
+      <c r="D25">
+        <v>0.01892944009119781</v>
+      </c>
+      <c r="E25">
+        <v>0.08074821022186943</v>
+      </c>
+      <c r="F25">
+        <v>0.06970086403417104</v>
+      </c>
+      <c r="G25">
+        <v>-0.08755788975096966</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05940407042668576</v>
+        <v>-0.06295099014056801</v>
       </c>
       <c r="C26">
-        <v>0.0725754564242805</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07638951740535647</v>
+      </c>
+      <c r="D26">
+        <v>0.03846795013201323</v>
+      </c>
+      <c r="E26">
+        <v>0.07528799208799158</v>
+      </c>
+      <c r="F26">
+        <v>0.03844471489329548</v>
+      </c>
+      <c r="G26">
+        <v>-0.1288286139348269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1695870447952614</v>
+        <v>-0.1739741014244217</v>
       </c>
       <c r="C28">
-        <v>-0.2268864409543928</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2291681621100348</v>
+      </c>
+      <c r="D28">
+        <v>0.09630522427254874</v>
+      </c>
+      <c r="E28">
+        <v>0.1166012563676803</v>
+      </c>
+      <c r="F28">
+        <v>0.02355021546172111</v>
+      </c>
+      <c r="G28">
+        <v>-0.09574562218306533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0253933268077046</v>
+        <v>-0.02643403172135339</v>
       </c>
       <c r="C29">
-        <v>0.05605375414331205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.0564545710118872</v>
+      </c>
+      <c r="D29">
+        <v>0.05289318196814582</v>
+      </c>
+      <c r="E29">
+        <v>0.03386873472331219</v>
+      </c>
+      <c r="F29">
+        <v>0.03652085998096865</v>
+      </c>
+      <c r="G29">
+        <v>-0.05156356754268002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02673527298963724</v>
+        <v>-0.03082055597719792</v>
       </c>
       <c r="C30">
-        <v>0.07069235832817082</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07571689885501399</v>
+      </c>
+      <c r="D30">
+        <v>-0.03313684482184372</v>
+      </c>
+      <c r="E30">
+        <v>0.1302323225578622</v>
+      </c>
+      <c r="F30">
+        <v>0.07059484654752837</v>
+      </c>
+      <c r="G30">
+        <v>-0.02954955556752023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05527833531642667</v>
+        <v>-0.05409553295113986</v>
       </c>
       <c r="C31">
-        <v>0.03399755379104349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03642123556399102</v>
+      </c>
+      <c r="D31">
+        <v>0.02117025474502779</v>
+      </c>
+      <c r="E31">
+        <v>-0.03483466810116732</v>
+      </c>
+      <c r="F31">
+        <v>0.0387099094125862</v>
+      </c>
+      <c r="G31">
+        <v>-0.03948427168556579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04070931998991941</v>
+        <v>-0.04479466924796469</v>
       </c>
       <c r="C32">
-        <v>0.0507266245993212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.04774120653246788</v>
+      </c>
+      <c r="D32">
+        <v>-0.006115835798151031</v>
+      </c>
+      <c r="E32">
+        <v>0.04176182046899916</v>
+      </c>
+      <c r="F32">
+        <v>-0.009085570413088167</v>
+      </c>
+      <c r="G32">
+        <v>-0.04364782860593119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.0773086133223462</v>
+        <v>-0.08160964248361184</v>
       </c>
       <c r="C33">
-        <v>0.1161182062495009</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1242077091791154</v>
+      </c>
+      <c r="D33">
+        <v>0.02261175216792889</v>
+      </c>
+      <c r="E33">
+        <v>0.04351218359484703</v>
+      </c>
+      <c r="F33">
+        <v>0.03584281569930263</v>
+      </c>
+      <c r="G33">
+        <v>-0.02941466247019274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05326904173225362</v>
+        <v>-0.05221724484017817</v>
       </c>
       <c r="C34">
-        <v>0.1256285026523457</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1250198132663619</v>
+      </c>
+      <c r="D34">
+        <v>-0.01128857566912042</v>
+      </c>
+      <c r="E34">
+        <v>0.02188811827796793</v>
+      </c>
+      <c r="F34">
+        <v>0.04691432948512556</v>
+      </c>
+      <c r="G34">
+        <v>-0.1413366873167617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02661902693157304</v>
+        <v>-0.02889590073448161</v>
       </c>
       <c r="C35">
-        <v>0.01733850196767162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02056658744387282</v>
+      </c>
+      <c r="D35">
+        <v>0.01054885528421286</v>
+      </c>
+      <c r="E35">
+        <v>0.02007889894625793</v>
+      </c>
+      <c r="F35">
+        <v>0.002529658123975202</v>
+      </c>
+      <c r="G35">
+        <v>-0.03726774541863406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02490186583364889</v>
+        <v>-0.02754508234019928</v>
       </c>
       <c r="C36">
-        <v>0.05363989341055035</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05191482764239597</v>
+      </c>
+      <c r="D36">
+        <v>-0.02296834130135906</v>
+      </c>
+      <c r="E36">
+        <v>-0.01435809316810621</v>
+      </c>
+      <c r="F36">
+        <v>0.003340020700296281</v>
+      </c>
+      <c r="G36">
+        <v>-0.1126677687051891</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005690129837319669</v>
+        <v>-0.00501027683566537</v>
       </c>
       <c r="C37">
-        <v>-0.0004298580431066993</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.00682545024734035</v>
+      </c>
+      <c r="D37">
+        <v>0.008574234039477869</v>
+      </c>
+      <c r="E37">
+        <v>0.00692995824119374</v>
+      </c>
+      <c r="F37">
+        <v>0.01062367044334786</v>
+      </c>
+      <c r="G37">
+        <v>0.004738638265710081</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08154420944783275</v>
+        <v>-0.07639031961316055</v>
       </c>
       <c r="C39">
-        <v>0.1513970282685455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1446357686957412</v>
+      </c>
+      <c r="D39">
+        <v>0.07482369803341159</v>
+      </c>
+      <c r="E39">
+        <v>0.06326864810463741</v>
+      </c>
+      <c r="F39">
+        <v>0.07825163651847286</v>
+      </c>
+      <c r="G39">
+        <v>-0.1656209033276438</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05388641813622242</v>
+        <v>-0.05575425583558064</v>
       </c>
       <c r="C40">
-        <v>0.07590916298465365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08177415065820777</v>
+      </c>
+      <c r="D40">
+        <v>0.01705169475860569</v>
+      </c>
+      <c r="E40">
+        <v>0.06234114351770204</v>
+      </c>
+      <c r="F40">
+        <v>-0.03189356899618106</v>
+      </c>
+      <c r="G40">
+        <v>-0.02461235416429955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03122077435608728</v>
+        <v>-0.03069331289668885</v>
       </c>
       <c r="C41">
-        <v>0.02273211843380738</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02485445190689447</v>
+      </c>
+      <c r="D41">
+        <v>-0.002571713330068811</v>
+      </c>
+      <c r="E41">
+        <v>0.0001861282991683917</v>
+      </c>
+      <c r="F41">
+        <v>-0.02199405200665988</v>
+      </c>
+      <c r="G41">
+        <v>-0.01050852497049679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0456216992783972</v>
+        <v>-0.04322769329767952</v>
       </c>
       <c r="C43">
-        <v>0.04060197948557384</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03869870728733255</v>
+      </c>
+      <c r="D43">
+        <v>0.03439540815766578</v>
+      </c>
+      <c r="E43">
+        <v>-0.03054145543093969</v>
+      </c>
+      <c r="F43">
+        <v>0.00323414826844715</v>
+      </c>
+      <c r="G43">
+        <v>-0.04805556133065394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05625503622274198</v>
+        <v>-0.06034746005211719</v>
       </c>
       <c r="C44">
-        <v>0.09590521747202313</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09761924324010804</v>
+      </c>
+      <c r="D44">
+        <v>-0.08366025961727892</v>
+      </c>
+      <c r="E44">
+        <v>0.09521900564770151</v>
+      </c>
+      <c r="F44">
+        <v>0.08079214169697319</v>
+      </c>
+      <c r="G44">
+        <v>-0.1258021742029982</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0009887280804728366</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0006281636942377024</v>
+      </c>
+      <c r="D45">
+        <v>0.000543069051112088</v>
+      </c>
+      <c r="E45">
+        <v>-0.0004651065545735239</v>
+      </c>
+      <c r="F45">
+        <v>0.006846979173266001</v>
+      </c>
+      <c r="G45">
+        <v>0.006361119479422997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02972761455897446</v>
+        <v>-0.03027744793672862</v>
       </c>
       <c r="C46">
-        <v>0.04684802933649562</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04465435473198821</v>
+      </c>
+      <c r="D46">
+        <v>0.06139483770617801</v>
+      </c>
+      <c r="E46">
+        <v>0.01025242985491523</v>
+      </c>
+      <c r="F46">
+        <v>0.04428843949798657</v>
+      </c>
+      <c r="G46">
+        <v>-0.06383917048519346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05761139878461548</v>
+        <v>-0.05476137643426957</v>
       </c>
       <c r="C47">
-        <v>0.04614250164723551</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04514655820748826</v>
+      </c>
+      <c r="D47">
+        <v>0.02921155833061858</v>
+      </c>
+      <c r="E47">
+        <v>-0.1001450078785779</v>
+      </c>
+      <c r="F47">
+        <v>-0.01310289504757081</v>
+      </c>
+      <c r="G47">
+        <v>0.03200677046449427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04860213197068872</v>
+        <v>-0.0503271238860446</v>
       </c>
       <c r="C48">
-        <v>0.06451921191740484</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06458739967429807</v>
+      </c>
+      <c r="D48">
+        <v>0.009255713380891347</v>
+      </c>
+      <c r="E48">
+        <v>0.04191652769061165</v>
+      </c>
+      <c r="F48">
+        <v>0.06781198425013354</v>
+      </c>
+      <c r="G48">
+        <v>-0.03758091331630536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1798148142110653</v>
+        <v>-0.1880918105314733</v>
       </c>
       <c r="C49">
-        <v>-0.03077525039976344</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02688071263693254</v>
+      </c>
+      <c r="D49">
+        <v>-0.06306515976753077</v>
+      </c>
+      <c r="E49">
+        <v>0.1077388752960588</v>
+      </c>
+      <c r="F49">
+        <v>-0.02398829764876011</v>
+      </c>
+      <c r="G49">
+        <v>0.1246169639652384</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05389534987560828</v>
+        <v>-0.05350115206957826</v>
       </c>
       <c r="C50">
-        <v>0.03521624433306258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03780062934966451</v>
+      </c>
+      <c r="D50">
+        <v>0.003018996053826622</v>
+      </c>
+      <c r="E50">
+        <v>-0.02659415230202326</v>
+      </c>
+      <c r="F50">
+        <v>0.048305371718296</v>
+      </c>
+      <c r="G50">
+        <v>-0.03524107763821022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1408504751826786</v>
+        <v>-0.1364419380125252</v>
       </c>
       <c r="C52">
-        <v>0.03707136688589765</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.0341996261737476</v>
+      </c>
+      <c r="D52">
+        <v>-0.06736572143728163</v>
+      </c>
+      <c r="E52">
+        <v>-0.1284473160500038</v>
+      </c>
+      <c r="F52">
+        <v>0.06160798142825982</v>
+      </c>
+      <c r="G52">
+        <v>-0.05028850264505205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1669301773548447</v>
+        <v>-0.1611021116126423</v>
       </c>
       <c r="C53">
-        <v>-0.007195180836455494</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.006567833061732639</v>
+      </c>
+      <c r="D53">
+        <v>-0.09772202781053128</v>
+      </c>
+      <c r="E53">
+        <v>-0.1697165873828939</v>
+      </c>
+      <c r="F53">
+        <v>0.08562576910841208</v>
+      </c>
+      <c r="G53">
+        <v>0.04336336848373697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01369012994981352</v>
+        <v>-0.01502252977551193</v>
       </c>
       <c r="C54">
-        <v>0.04299446501450246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04285349631807588</v>
+      </c>
+      <c r="D54">
+        <v>0.01771336409193074</v>
+      </c>
+      <c r="E54">
+        <v>0.03187656464849799</v>
+      </c>
+      <c r="F54">
+        <v>0.03854047637728984</v>
+      </c>
+      <c r="G54">
+        <v>-0.07749257876785354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1223274253596236</v>
+        <v>-0.1209028042659952</v>
       </c>
       <c r="C55">
-        <v>0.01577172822310614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01540624277304178</v>
+      </c>
+      <c r="D55">
+        <v>-0.04067135631837467</v>
+      </c>
+      <c r="E55">
+        <v>-0.1658707514605328</v>
+      </c>
+      <c r="F55">
+        <v>0.114087477231679</v>
+      </c>
+      <c r="G55">
+        <v>-0.06341902613596299</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1823876674002321</v>
+        <v>-0.1775227244156425</v>
       </c>
       <c r="C56">
-        <v>-0.0135518826541607</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01529248375053154</v>
+      </c>
+      <c r="D56">
+        <v>-0.1133092404385427</v>
+      </c>
+      <c r="E56">
+        <v>-0.2065001850411528</v>
+      </c>
+      <c r="F56">
+        <v>0.06600981924468995</v>
+      </c>
+      <c r="G56">
+        <v>0.04864147871390965</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0411778311998241</v>
+        <v>-0.04101647872088373</v>
       </c>
       <c r="C58">
-        <v>0.09780589254469932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1087483133548449</v>
+      </c>
+      <c r="D58">
+        <v>0.04269223274441917</v>
+      </c>
+      <c r="E58">
+        <v>0.02118828800405454</v>
+      </c>
+      <c r="F58">
+        <v>0.02174332408862846</v>
+      </c>
+      <c r="G58">
+        <v>-0.04333132941461491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1782385175240636</v>
+        <v>-0.1849959315786659</v>
       </c>
       <c r="C59">
-        <v>-0.1616626627836854</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1686728453477544</v>
+      </c>
+      <c r="D59">
+        <v>0.1145897814230214</v>
+      </c>
+      <c r="E59">
+        <v>0.04286867877599478</v>
+      </c>
+      <c r="F59">
+        <v>-0.01889327052652622</v>
+      </c>
+      <c r="G59">
+        <v>-0.08936840342061217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2068696782311468</v>
+        <v>-0.2055230080722376</v>
       </c>
       <c r="C60">
-        <v>0.005541940418576061</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.009161695839992637</v>
+      </c>
+      <c r="D60">
+        <v>-0.07786212649500356</v>
+      </c>
+      <c r="E60">
+        <v>-0.01898301633760869</v>
+      </c>
+      <c r="F60">
+        <v>-0.06787559809234427</v>
+      </c>
+      <c r="G60">
+        <v>0.2026564564748528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.05943488826586289</v>
+        <v>-0.05823607817281093</v>
       </c>
       <c r="C61">
-        <v>0.1292250587624505</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1254637462289391</v>
+      </c>
+      <c r="D61">
+        <v>0.03786515026720783</v>
+      </c>
+      <c r="E61">
+        <v>0.06783338256442271</v>
+      </c>
+      <c r="F61">
+        <v>0.03685539724302339</v>
+      </c>
+      <c r="G61">
+        <v>-0.1099214244910739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1723394637723287</v>
+        <v>-0.1685096210685511</v>
       </c>
       <c r="C62">
-        <v>-0.008269069808492801</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.009320619568937852</v>
+      </c>
+      <c r="D62">
+        <v>-0.08482001087877222</v>
+      </c>
+      <c r="E62">
+        <v>-0.1843696641434003</v>
+      </c>
+      <c r="F62">
+        <v>0.05316600887447297</v>
+      </c>
+      <c r="G62">
+        <v>0.005290003123546804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04223796274421945</v>
+        <v>-0.04471788958464225</v>
       </c>
       <c r="C63">
-        <v>0.07644053827629806</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08052668904812069</v>
+      </c>
+      <c r="D63">
+        <v>0.02098712882820298</v>
+      </c>
+      <c r="E63">
+        <v>0.02829666891122952</v>
+      </c>
+      <c r="F63">
+        <v>0.003847281145565924</v>
+      </c>
+      <c r="G63">
+        <v>-0.104887697641579</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1132889601344152</v>
+        <v>-0.1112917750828555</v>
       </c>
       <c r="C64">
-        <v>0.06224519663574526</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06349730551438114</v>
+      </c>
+      <c r="D64">
+        <v>-0.05519093897076784</v>
+      </c>
+      <c r="E64">
+        <v>0.0006178265571823447</v>
+      </c>
+      <c r="F64">
+        <v>0.005669056113396753</v>
+      </c>
+      <c r="G64">
+        <v>0.01631946573589888</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1550112054019178</v>
+        <v>-0.1587068459662815</v>
       </c>
       <c r="C65">
-        <v>-0.05317473124519144</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04280500013396057</v>
+      </c>
+      <c r="D65">
+        <v>-0.02171102275294437</v>
+      </c>
+      <c r="E65">
+        <v>-0.02624284199354845</v>
+      </c>
+      <c r="F65">
+        <v>0.06025600209217147</v>
+      </c>
+      <c r="G65">
+        <v>0.1459775451537056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09809049644925778</v>
+        <v>-0.09361817262898439</v>
       </c>
       <c r="C66">
-        <v>0.1290193418680701</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1268166897510803</v>
+      </c>
+      <c r="D66">
+        <v>0.04461021622201572</v>
+      </c>
+      <c r="E66">
+        <v>0.06787307421820915</v>
+      </c>
+      <c r="F66">
+        <v>0.05134049576609271</v>
+      </c>
+      <c r="G66">
+        <v>-0.1466300450151769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04973266059635097</v>
+        <v>-0.04311288735821057</v>
       </c>
       <c r="C67">
-        <v>0.08374091953374471</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07655422804854407</v>
+      </c>
+      <c r="D67">
+        <v>0.03286834784978147</v>
+      </c>
+      <c r="E67">
+        <v>-0.0809670352138832</v>
+      </c>
+      <c r="F67">
+        <v>-0.03483103526376003</v>
+      </c>
+      <c r="G67">
+        <v>-0.03086773352281867</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1460842076270197</v>
+        <v>-0.1463242353605086</v>
       </c>
       <c r="C68">
-        <v>-0.2605258334886863</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2543639246904852</v>
+      </c>
+      <c r="D68">
+        <v>0.07657419311475458</v>
+      </c>
+      <c r="E68">
+        <v>0.1309422912886368</v>
+      </c>
+      <c r="F68">
+        <v>0.06754062805968446</v>
+      </c>
+      <c r="G68">
+        <v>-0.03280958079785648</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03856899821923502</v>
+        <v>-0.03637101459360397</v>
       </c>
       <c r="C69">
-        <v>0.02171842442198592</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02514570501086858</v>
+      </c>
+      <c r="D69">
+        <v>-0.0168901300224864</v>
+      </c>
+      <c r="E69">
+        <v>-0.07647954641054124</v>
+      </c>
+      <c r="F69">
+        <v>-0.02652586431861273</v>
+      </c>
+      <c r="G69">
+        <v>-0.03213777445499352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07845274730166786</v>
+        <v>-0.07677536236349791</v>
       </c>
       <c r="C70">
-        <v>0.1051147361891151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.1072741225121922</v>
+      </c>
+      <c r="D70">
+        <v>0.05954152790951696</v>
+      </c>
+      <c r="E70">
+        <v>0.08903275442133329</v>
+      </c>
+      <c r="F70">
+        <v>-0.02523780647086082</v>
+      </c>
+      <c r="G70">
+        <v>0.03430240070367657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1675865393413178</v>
+        <v>-0.1698331638788818</v>
       </c>
       <c r="C71">
-        <v>-0.2613751593613482</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2586229598316896</v>
+      </c>
+      <c r="D71">
+        <v>0.0885902458979196</v>
+      </c>
+      <c r="E71">
+        <v>0.1402984302463896</v>
+      </c>
+      <c r="F71">
+        <v>0.05355870687971789</v>
+      </c>
+      <c r="G71">
+        <v>-0.01236546440501102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1422734541497893</v>
+        <v>-0.1477951775496759</v>
       </c>
       <c r="C72">
-        <v>0.01124060323453433</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.009440008020591358</v>
+      </c>
+      <c r="D72">
+        <v>-0.0193203150269217</v>
+      </c>
+      <c r="E72">
+        <v>-0.111973601981102</v>
+      </c>
+      <c r="F72">
+        <v>0.02339170668429431</v>
+      </c>
+      <c r="G72">
+        <v>-0.04382711063684247</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1862808702734974</v>
+        <v>-0.1969193448513048</v>
       </c>
       <c r="C73">
-        <v>0.02363045404428108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02687150001557081</v>
+      </c>
+      <c r="D73">
+        <v>-0.07281018578085716</v>
+      </c>
+      <c r="E73">
+        <v>-0.04952600467394087</v>
+      </c>
+      <c r="F73">
+        <v>-0.03841288464026139</v>
+      </c>
+      <c r="G73">
+        <v>0.04992512344859391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07921182562378477</v>
+        <v>-0.0799397299443452</v>
       </c>
       <c r="C74">
-        <v>0.004199537260651694</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01013321059989888</v>
+      </c>
+      <c r="D74">
+        <v>-0.09256345308731896</v>
+      </c>
+      <c r="E74">
+        <v>-0.08558953516167063</v>
+      </c>
+      <c r="F74">
+        <v>0.02158140434594629</v>
+      </c>
+      <c r="G74">
+        <v>0.003502972511241148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1223737414275333</v>
+        <v>-0.1147504021626147</v>
       </c>
       <c r="C75">
-        <v>0.02836829128211241</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02889991001290491</v>
+      </c>
+      <c r="D75">
+        <v>-0.04351128061165759</v>
+      </c>
+      <c r="E75">
+        <v>-0.1888799133762459</v>
+      </c>
+      <c r="F75">
+        <v>0.0411345812630845</v>
+      </c>
+      <c r="G75">
+        <v>0.01297235686989124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.08058926068737468</v>
+        <v>-0.08817263720151339</v>
       </c>
       <c r="C77">
-        <v>0.1203067303604545</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1266759525254634</v>
+      </c>
+      <c r="D77">
+        <v>0.009781982499102346</v>
+      </c>
+      <c r="E77">
+        <v>0.1252139224270553</v>
+      </c>
+      <c r="F77">
+        <v>0.1228664644965356</v>
+      </c>
+      <c r="G77">
+        <v>0.1321390054143219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07212010588762223</v>
+        <v>-0.07910870002866711</v>
       </c>
       <c r="C78">
-        <v>0.1387528693232905</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1414935396783098</v>
+      </c>
+      <c r="D78">
+        <v>0.08305986244965997</v>
+      </c>
+      <c r="E78">
+        <v>0.009970467068858674</v>
+      </c>
+      <c r="F78">
+        <v>0.1014974096661018</v>
+      </c>
+      <c r="G78">
+        <v>0.2125590014714076</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1708517752929633</v>
+        <v>-0.1662223328683365</v>
       </c>
       <c r="C79">
-        <v>0.02309621946167392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02175509922729087</v>
+      </c>
+      <c r="D79">
+        <v>-0.03065224415293702</v>
+      </c>
+      <c r="E79">
+        <v>-0.1492026072395501</v>
+      </c>
+      <c r="F79">
+        <v>0.05265807521385592</v>
+      </c>
+      <c r="G79">
+        <v>0.01462884457265943</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0768596772770522</v>
+        <v>-0.07281287252274297</v>
       </c>
       <c r="C80">
-        <v>0.08054590968574267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07643462758517033</v>
+      </c>
+      <c r="D80">
+        <v>0.04388016020892835</v>
+      </c>
+      <c r="E80">
+        <v>0.07635574995656388</v>
+      </c>
+      <c r="F80">
+        <v>-0.06418326046385067</v>
+      </c>
+      <c r="G80">
+        <v>-0.1217321751692226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1107163236673974</v>
+        <v>-0.1044266710136264</v>
       </c>
       <c r="C81">
-        <v>-0.01142652837393915</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.0102908419908265</v>
+      </c>
+      <c r="D81">
+        <v>-0.02983180449541997</v>
+      </c>
+      <c r="E81">
+        <v>-0.1960118489489731</v>
+      </c>
+      <c r="F81">
+        <v>-0.02022774617369078</v>
+      </c>
+      <c r="G81">
+        <v>-0.001028074288515618</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1623020062370193</v>
+        <v>-0.1583512894556923</v>
       </c>
       <c r="C82">
-        <v>-0.02036860123663115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.017470054058448</v>
+      </c>
+      <c r="D82">
+        <v>-0.135095139438325</v>
+      </c>
+      <c r="E82">
+        <v>-0.1598616589984162</v>
+      </c>
+      <c r="F82">
+        <v>0.03752929096936872</v>
+      </c>
+      <c r="G82">
+        <v>0.0245271687388463</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.0538961673868255</v>
+        <v>-0.05082305279676316</v>
       </c>
       <c r="C83">
-        <v>0.06406153060960609</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05778964787325037</v>
+      </c>
+      <c r="D83">
+        <v>0.02082654265040029</v>
+      </c>
+      <c r="E83">
+        <v>0.01455816427195506</v>
+      </c>
+      <c r="F83">
+        <v>-0.01354920365225977</v>
+      </c>
+      <c r="G83">
+        <v>-0.04984372846233401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04845557239362847</v>
+        <v>-0.047531321725565</v>
       </c>
       <c r="C84">
-        <v>0.07447514707524942</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07286232045118202</v>
+      </c>
+      <c r="D84">
+        <v>0.01288234016846728</v>
+      </c>
+      <c r="E84">
+        <v>-0.01885431446001766</v>
+      </c>
+      <c r="F84">
+        <v>0.03447969920405808</v>
+      </c>
+      <c r="G84">
+        <v>-0.06824562160993505</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1393306375804888</v>
+        <v>-0.1347252142518661</v>
       </c>
       <c r="C85">
-        <v>0.007541525618655316</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.006601500805313495</v>
+      </c>
+      <c r="D85">
+        <v>-0.06458538997267094</v>
+      </c>
+      <c r="E85">
+        <v>-0.1377869704392142</v>
+      </c>
+      <c r="F85">
+        <v>0.08827500223412138</v>
+      </c>
+      <c r="G85">
+        <v>-0.01028282123241632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08509782074473657</v>
+        <v>-0.08508144930079928</v>
       </c>
       <c r="C86">
-        <v>0.1505465617945128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1571931773738077</v>
+      </c>
+      <c r="D86">
+        <v>0.8200678190762906</v>
+      </c>
+      <c r="E86">
+        <v>-0.218645836240903</v>
+      </c>
+      <c r="F86">
+        <v>-0.2706293409890963</v>
+      </c>
+      <c r="G86">
+        <v>0.1015471654660621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08537564491429872</v>
+        <v>-0.08106432107721478</v>
       </c>
       <c r="C87">
-        <v>0.1001888236286523</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.09621601398851856</v>
+      </c>
+      <c r="D87">
+        <v>-0.04608381328293637</v>
+      </c>
+      <c r="E87">
+        <v>0.2664397873254187</v>
+      </c>
+      <c r="F87">
+        <v>0.02665451902951571</v>
+      </c>
+      <c r="G87">
+        <v>-0.03055683010258648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05962710669176005</v>
+        <v>-0.0591263387657792</v>
       </c>
       <c r="C88">
-        <v>0.06443149388260941</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.0646085346355824</v>
+      </c>
+      <c r="D88">
+        <v>-0.02254104622632676</v>
+      </c>
+      <c r="E88">
+        <v>-0.03832476290041077</v>
+      </c>
+      <c r="F88">
+        <v>0.01003357686313473</v>
+      </c>
+      <c r="G88">
+        <v>0.01337850280306929</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1528958920662745</v>
+        <v>-0.15127157573724</v>
       </c>
       <c r="C89">
-        <v>-0.2029118213328207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2086432706978595</v>
+      </c>
+      <c r="D89">
+        <v>0.04152485239658429</v>
+      </c>
+      <c r="E89">
+        <v>0.09996650448865742</v>
+      </c>
+      <c r="F89">
+        <v>0.02402905595256104</v>
+      </c>
+      <c r="G89">
+        <v>-0.01521399009271755</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1868901157459266</v>
+        <v>-0.1881076770313258</v>
       </c>
       <c r="C90">
-        <v>-0.2462571585869681</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2452781286745437</v>
+      </c>
+      <c r="D90">
+        <v>0.1010949224521553</v>
+      </c>
+      <c r="E90">
+        <v>0.1726665068251164</v>
+      </c>
+      <c r="F90">
+        <v>0.01432052921261402</v>
+      </c>
+      <c r="G90">
+        <v>0.05330341433970197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1243729321281003</v>
+        <v>-0.1184425175541532</v>
       </c>
       <c r="C91">
-        <v>-0.01671954057708935</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01597339008114152</v>
+      </c>
+      <c r="D91">
+        <v>-0.02984418351090507</v>
+      </c>
+      <c r="E91">
+        <v>-0.2177653416827997</v>
+      </c>
+      <c r="F91">
+        <v>-0.02539674549937162</v>
+      </c>
+      <c r="G91">
+        <v>-0.03450854507542132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1747338702285013</v>
+        <v>-0.1752485370366408</v>
       </c>
       <c r="C92">
-        <v>-0.2579354936412428</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2699644548940163</v>
+      </c>
+      <c r="D92">
+        <v>0.1371589230459781</v>
+      </c>
+      <c r="E92">
+        <v>0.1450376864101394</v>
+      </c>
+      <c r="F92">
+        <v>0.081271978567358</v>
+      </c>
+      <c r="G92">
+        <v>-0.09591483855036351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1816902524063765</v>
+        <v>-0.1877607873641043</v>
       </c>
       <c r="C93">
-        <v>-0.2294506242652187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2305570927694372</v>
+      </c>
+      <c r="D93">
+        <v>0.07819498330151482</v>
+      </c>
+      <c r="E93">
+        <v>0.06963622628214222</v>
+      </c>
+      <c r="F93">
+        <v>0.05790223575794681</v>
+      </c>
+      <c r="G93">
+        <v>-0.01168092243526102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1208013016028708</v>
+        <v>-0.1155022135664274</v>
       </c>
       <c r="C94">
-        <v>0.03305644064158531</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03287756373351874</v>
+      </c>
+      <c r="D94">
+        <v>-0.03488700129010806</v>
+      </c>
+      <c r="E94">
+        <v>-0.1708742642494285</v>
+      </c>
+      <c r="F94">
+        <v>0.04028868384131802</v>
+      </c>
+      <c r="G94">
+        <v>-0.02932503470009794</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1212648006743243</v>
+        <v>-0.1198145842258228</v>
       </c>
       <c r="C95">
-        <v>0.1058150979318794</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1164965472274214</v>
+      </c>
+      <c r="D95">
+        <v>0.05905540650288058</v>
+      </c>
+      <c r="E95">
+        <v>0.05953271955920074</v>
+      </c>
+      <c r="F95">
+        <v>0.04708792550883212</v>
+      </c>
+      <c r="G95">
+        <v>-0.09534145904418463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1267219905935991</v>
+        <v>-0.1237160717640386</v>
       </c>
       <c r="C96">
-        <v>0.1068763698937167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1105596375650289</v>
+      </c>
+      <c r="D96">
+        <v>-0.03469070713778991</v>
+      </c>
+      <c r="E96">
+        <v>0.009925551102132639</v>
+      </c>
+      <c r="F96">
+        <v>0.04545175520611971</v>
+      </c>
+      <c r="G96">
+        <v>0.02475056417693005</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1959104077003999</v>
+        <v>-0.2010717358280428</v>
       </c>
       <c r="C97">
-        <v>0.02620303705443185</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.01892447868500458</v>
+      </c>
+      <c r="D97">
+        <v>-0.2617455818743852</v>
+      </c>
+      <c r="E97">
+        <v>0.07195701543380434</v>
+      </c>
+      <c r="F97">
+        <v>-0.8031569260809294</v>
+      </c>
+      <c r="G97">
+        <v>-0.3268069236596565</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1984573315199082</v>
+        <v>-0.2055949273476414</v>
       </c>
       <c r="C98">
-        <v>0.01332218883674947</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01584327619400817</v>
+      </c>
+      <c r="D98">
+        <v>-0.04686630273086796</v>
+      </c>
+      <c r="E98">
+        <v>0.1046023475110531</v>
+      </c>
+      <c r="F98">
+        <v>-0.133027191894329</v>
+      </c>
+      <c r="G98">
+        <v>0.3197979736760456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05115727711550987</v>
+        <v>-0.05106340124691009</v>
       </c>
       <c r="C99">
-        <v>0.05683570673397977</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05646712807753785</v>
+      </c>
+      <c r="D99">
+        <v>0.00170616170327982</v>
+      </c>
+      <c r="E99">
+        <v>0.03637459294558891</v>
+      </c>
+      <c r="F99">
+        <v>0.02713180098365471</v>
+      </c>
+      <c r="G99">
+        <v>-0.01589631664590205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1164083028512317</v>
+        <v>-0.1111387482544445</v>
       </c>
       <c r="C100">
-        <v>0.2775579147417497</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2670444943256564</v>
+      </c>
+      <c r="D100">
+        <v>-0.05428979589468766</v>
+      </c>
+      <c r="E100">
+        <v>0.30480688149325</v>
+      </c>
+      <c r="F100">
+        <v>-0.1832679697605522</v>
+      </c>
+      <c r="G100">
+        <v>0.5086190718063676</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02541833851831066</v>
+        <v>-0.02642990844393701</v>
       </c>
       <c r="C101">
-        <v>0.05534228192151553</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05582579110442735</v>
+      </c>
+      <c r="D101">
+        <v>0.05209425571783596</v>
+      </c>
+      <c r="E101">
+        <v>0.03096818252020861</v>
+      </c>
+      <c r="F101">
+        <v>0.03516065152026122</v>
+      </c>
+      <c r="G101">
+        <v>-0.04708042660625249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
